--- a/formatted_grades.xlsx
+++ b/formatted_grades.xlsx
@@ -436,14 +436,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -454,14 +477,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -472,14 +518,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -490,14 +559,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -508,14 +600,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/formatted_grades.xlsx
+++ b/formatted_grades.xlsx
@@ -1,39 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlieward/Documents/GitHub/Excel-Grade-Summary/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5872FFA-274A-2C43-BC9B-3FB7232677DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Algebra" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Trigonometry" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Geometry" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Calculus" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Statistics" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Algebra" sheetId="1" r:id="rId1"/>
+    <sheet name="Trigonometry" sheetId="2" r:id="rId2"/>
+    <sheet name="Geometry" sheetId="3" r:id="rId3"/>
+    <sheet name="Calculus" sheetId="4" r:id="rId4"/>
+    <sheet name="Statistics" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,81 +77,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,57 +381,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -471,40 +412,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -512,40 +439,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -553,40 +466,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -594,40 +493,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/formatted_grades.xlsx
+++ b/formatted_grades.xlsx
@@ -8,11 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Algebra" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Trigonometry" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Geometry" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Calculus" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Statistics" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="US History" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="World History" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Economics" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sociology" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +463,606 @@
         <is>
           <t>Grade</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A411502</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A264593</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A583929</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A720520</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A167602</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A964785</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A973821</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A168077</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A906147</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A944981</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A436358</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A709025</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A226508</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A642508</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A776697</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A345105</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A832461</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A771469</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A642695</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A303780</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A908192</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A915935</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A953645</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A239606</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A376048</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A544176</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A207415</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A414782</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A459429</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A544532</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -477,7 +1076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +1104,786 @@
         <is>
           <t>Grade</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A224814</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A721849</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A632891</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A839154</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A654921</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A456673</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A861585</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A401874</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A691594</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A828069</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A577802</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A391741</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A315172</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A141349</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A882585</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A878730</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A633066</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A985522</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A191033</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A810174</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A315975</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A615686</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A137519</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A515348</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A882142</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A748660</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A413567</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A202409</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A856819</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A930566</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A794939</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A973902</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A178063</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A906827</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A620696</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A911729</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A293408</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A606582</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A887613</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +1897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +1925,786 @@
         <is>
           <t>Grade</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A524563</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A136756</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A506708</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A923990</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A396362</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A591499</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A636971</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A954763</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A602085</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A256211</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A315504</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A355334</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A840817</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A950177</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A556425</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A341776</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A670267</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A197327</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A276469</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A560443</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A675960</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A150361</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A951439</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A658689</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A848040</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A965437</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A326210</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A452023</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A228761</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A874638</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A774064</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A801440</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A271333</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A776097</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A301916</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A651544</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A290581</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A220383</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A222043</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +2718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,45 +2748,744 @@
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A990760</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A752761</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A348887</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A215663</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A654708</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A186719</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A310135</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A835775</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A272775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A624562</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A308336</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A454516</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A203575</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A207205</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A515238</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A685270</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A767232</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A631348</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A811327</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A772539</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A283318</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A790254</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A818790</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A642966</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A700768</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A223027</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A283598</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A172081</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A474219</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A540763</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A431682</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A878608</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A311979</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A239233</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A265854</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A145837</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A750210</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/formatted_grades.xlsx
+++ b/formatted_grades.xlsx
@@ -7,11 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="US History" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="World History" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Economics" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sociology" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="US History" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="World History" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Economics" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sociology" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,13 +20,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,14 +420,643 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A411502</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A264593</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A583929</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A720520</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A167602</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A964785</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A973821</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A168077</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A906147</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A944981</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A436358</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A709025</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A226508</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A642508</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A776697</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A345105</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A832461</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A771469</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A642695</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A303780</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A908192</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A915935</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A953645</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A239606</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A376048</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A544176</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A207415</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A414782</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A459429</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A544532</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -435,31 +1067,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>
@@ -468,327 +1106,327 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A411502</t>
+          <t>A224814</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A264593</t>
+          <t>A721849</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A583929</t>
+          <t>A632891</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A720520</t>
+          <t>A839154</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A167602</t>
+          <t>A654921</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A964785</t>
+          <t>A456673</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A973821</t>
+          <t>A861585</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A168077</t>
+          <t>A401874</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A906147</t>
+          <t>A691594</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A944981</t>
+          <t>A828069</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A436358</t>
+          <t>A577802</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A709025</t>
+          <t>A391741</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A226508</t>
+          <t>A315172</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A642508</t>
+          <t>A141349</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A776697</t>
+          <t>A882585</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A345105</t>
+          <t>A878730</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -798,111 +1436,111 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A832461</t>
+          <t>A633066</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A771469</t>
+          <t>A985522</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A642695</t>
+          <t>A191033</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A303780</t>
+          <t>A810174</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A908192</t>
+          <t>A315975</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A915935</t>
+          <t>A615686</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -913,42 +1551,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A953645</t>
+          <t>A137519</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A239606</t>
+          <t>A515348</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -958,31 +1596,31 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A376048</t>
+          <t>A882142</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A544176</t>
+          <t>A748660</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
@@ -993,56 +1631,56 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A207415</t>
+          <t>A413567</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A414782</t>
+          <t>A202409</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A459429</t>
+          <t>A856819</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -1053,16 +1691,196 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A544532</t>
+          <t>A930566</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>44</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A794939</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A973902</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A178063</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A906827</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A620696</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A911729</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A293408</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A606582</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A887613</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1083,24 +1901,30 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>
@@ -1109,107 +1933,107 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A224814</t>
+          <t>A524563</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A721849</t>
+          <t>A136756</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A632891</t>
+          <t>A506708</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A839154</t>
+          <t>A923990</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A654921</t>
+          <t>A396362</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1219,77 +2043,77 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A456673</t>
+          <t>A591499</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A861585</t>
+          <t>A636971</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A401874</t>
+          <t>A954763</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A691594</t>
+          <t>A602085</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1299,97 +2123,97 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A828069</t>
+          <t>A256211</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A577802</t>
+          <t>A315504</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A391741</t>
+          <t>A355334</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A315172</t>
+          <t>A840817</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A141349</t>
+          <t>A950177</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1399,57 +2223,57 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A882585</t>
+          <t>A556425</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A878730</t>
+          <t>A341776</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A633066</t>
+          <t>A670267</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1459,267 +2283,267 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A985522</t>
+          <t>A197327</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A191033</t>
+          <t>A276469</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A810174</t>
+          <t>A560443</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A315975</t>
+          <t>A675960</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A615686</t>
+          <t>A150361</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A137519</t>
+          <t>A951439</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A515348</t>
+          <t>A658689</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A882142</t>
+          <t>A848040</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A748660</t>
+          <t>A965437</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A413567</t>
+          <t>A326210</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A202409</t>
+          <t>A452023</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A856819</t>
+          <t>A228761</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A930566</t>
+          <t>A874638</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A794939</t>
+          <t>A774064</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1734,102 +2558,102 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A973902</t>
+          <t>A801440</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A178063</t>
+          <t>A271333</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A906827</t>
+          <t>A776097</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A620696</t>
+          <t>A301916</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A911729</t>
+          <t>A651544</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1839,37 +2663,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A293408</t>
+          <t>A290581</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A606582</t>
+          <t>A220383</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1879,11 +2703,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A887613</t>
+          <t>A222043</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1892,827 +2716,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A524563</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A136756</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A506708</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A923990</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A396362</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A591499</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A636971</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A954763</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A602085</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A256211</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A315504</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A355334</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A840817</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A950177</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A556425</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A341776</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A670267</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A197327</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A276469</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A560443</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A675960</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A150361</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A951439</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A658689</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A848040</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A965437</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A326210</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A452023</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A228761</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A874638</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A774064</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A801440</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A271333</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A776097</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A301916</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A651544</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A290581</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A220383</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A222043</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2725,24 +2728,30 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>

--- a/formatted_grades.xlsx
+++ b/formatted_grades.xlsx
@@ -13,7 +13,12 @@
     <sheet name="Economics" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Sociology" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'US History'!$A:$D</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'World History'!$A:$D</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Economics'!$A:$D</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sociology'!$A:$D</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -435,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +469,16 @@
           <t>Grade</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Summary Statistics</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,6 +499,15 @@
       <c r="D2" t="n">
         <v>79</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Highest Grade</t>
+        </is>
+      </c>
+      <c r="G2">
+        <f>MAX(D2:D31)</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -504,6 +528,15 @@
       <c r="D3" t="n">
         <v>26</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Lowest Grade</t>
+        </is>
+      </c>
+      <c r="G3">
+        <f>MIN(D2:D31)</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -524,6 +557,15 @@
       <c r="D4" t="n">
         <v>32</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mean Grade</t>
+        </is>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(D2:D31)</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -544,6 +586,15 @@
       <c r="D5" t="n">
         <v>87</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Median Grade</t>
+        </is>
+      </c>
+      <c r="G5">
+        <f>MEDIAN(D2:D31)</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,6 +615,15 @@
       <c r="D6" t="n">
         <v>85</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Number of Students</t>
+        </is>
+      </c>
+      <c r="G6">
+        <f>COUNT(D2:D31)</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1066,6 +1126,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A:D"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1076,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,6 +1166,16 @@
           <t>Grade</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Summary Statistics</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1125,6 +1196,15 @@
       <c r="D2" t="n">
         <v>49</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Highest Grade</t>
+        </is>
+      </c>
+      <c r="G2">
+        <f>MAX(D2:D40)</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1145,6 +1225,15 @@
       <c r="D3" t="n">
         <v>19</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Lowest Grade</t>
+        </is>
+      </c>
+      <c r="G3">
+        <f>MIN(D2:D40)</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1165,6 +1254,15 @@
       <c r="D4" t="n">
         <v>37</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mean Grade</t>
+        </is>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(D2:D40)</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1185,6 +1283,15 @@
       <c r="D5" t="n">
         <v>17</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Median Grade</t>
+        </is>
+      </c>
+      <c r="G5">
+        <f>MEDIAN(D2:D40)</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1205,6 +1312,15 @@
       <c r="D6" t="n">
         <v>2</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Number of Students</t>
+        </is>
+      </c>
+      <c r="G6">
+        <f>COUNT(D2:D40)</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1887,6 +2003,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A:D"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1897,7 +2014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1926,6 +2043,16 @@
           <t>Grade</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Summary Statistics</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1946,6 +2073,15 @@
       <c r="D2" t="n">
         <v>82</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Highest Grade</t>
+        </is>
+      </c>
+      <c r="G2">
+        <f>MAX(D2:D40)</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1966,6 +2102,15 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Lowest Grade</t>
+        </is>
+      </c>
+      <c r="G3">
+        <f>MIN(D2:D40)</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1986,6 +2131,15 @@
       <c r="D4" t="n">
         <v>40</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mean Grade</t>
+        </is>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(D2:D40)</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2006,6 +2160,15 @@
       <c r="D5" t="n">
         <v>75</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Median Grade</t>
+        </is>
+      </c>
+      <c r="G5">
+        <f>MEDIAN(D2:D40)</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2026,6 +2189,15 @@
       <c r="D6" t="n">
         <v>40</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Number of Students</t>
+        </is>
+      </c>
+      <c r="G6">
+        <f>COUNT(D2:D40)</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2708,6 +2880,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A:D"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2718,7 +2891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2747,6 +2920,16 @@
           <t>Grade</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Summary Statistics</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2767,6 +2950,15 @@
       <c r="D2" t="n">
         <v>24</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Highest Grade</t>
+        </is>
+      </c>
+      <c r="G2">
+        <f>MAX(D2:D38)</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2787,6 +2979,15 @@
       <c r="D3" t="n">
         <v>14</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Lowest Grade</t>
+        </is>
+      </c>
+      <c r="G3">
+        <f>MIN(D2:D38)</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2807,6 +3008,15 @@
       <c r="D4" t="n">
         <v>83</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mean Grade</t>
+        </is>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(D2:D38)</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2827,6 +3037,15 @@
       <c r="D5" t="n">
         <v>16</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Median Grade</t>
+        </is>
+      </c>
+      <c r="G5">
+        <f>MEDIAN(D2:D38)</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2847,6 +3066,15 @@
       <c r="D6" t="n">
         <v>76</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Number of Students</t>
+        </is>
+      </c>
+      <c r="G6">
+        <f>COUNT(D2:D38)</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3489,6 +3717,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A:D"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/formatted_grades.xlsx
+++ b/formatted_grades.xlsx
@@ -7,17 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="US History" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="World History" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Economics" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sociology" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="US History" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="World History" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Economics" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sociology" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'US History'!$A:$D</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'World History'!$A:$D</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Economics'!$A:$D</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sociology'!$A:$D</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US History'!$A:$D</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'World History'!$A:$D</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Economics'!$A:$D</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sociology'!$A:$D</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -26,13 +25,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,8 +57,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,14 +425,702 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Summary Statistics</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A411502</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Highest Grade</t>
+        </is>
+      </c>
+      <c r="G2">
+        <f>MAX(D2:D31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A264593</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>26</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Lowest Grade</t>
+        </is>
+      </c>
+      <c r="G3">
+        <f>MIN(D2:D31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A583929</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mean Grade</t>
+        </is>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(D2:D31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A720520</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>87</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Median Grade</t>
+        </is>
+      </c>
+      <c r="G5">
+        <f>MEDIAN(D2:D31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A167602</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>85</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Number of Students</t>
+        </is>
+      </c>
+      <c r="G6">
+        <f>COUNT(D2:D31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A964785</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A973821</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A168077</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A906147</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A944981</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A436358</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A709025</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A226508</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A642508</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A776697</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A345105</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A832461</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A771469</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A642695</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A303780</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A908192</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A915935</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A953645</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A239606</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A376048</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A544176</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A207415</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A414782</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A459429</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A544532</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A:D"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -440,41 +1131,50 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Summary Statistics</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -483,21 +1183,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A411502</t>
+          <t>A224814</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -505,28 +1205,28 @@
         </is>
       </c>
       <c r="G2">
-        <f>MAX(D2:D31)</f>
+        <f>MAX(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A264593</t>
+          <t>A721849</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -534,28 +1234,28 @@
         </is>
       </c>
       <c r="G3">
-        <f>MIN(D2:D31)</f>
+        <f>MIN(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A583929</t>
+          <t>A632891</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -563,28 +1263,28 @@
         </is>
       </c>
       <c r="G4">
-        <f>AVERAGE(D2:D31)</f>
+        <f>AVERAGE(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A720520</t>
+          <t>A839154</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -592,28 +1292,28 @@
         </is>
       </c>
       <c r="G5">
-        <f>MEDIAN(D2:D31)</f>
+        <f>MEDIAN(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A167602</t>
+          <t>A654921</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -621,234 +1321,234 @@
         </is>
       </c>
       <c r="G6">
-        <f>COUNT(D2:D31)</f>
+        <f>COUNT(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A964785</t>
+          <t>A456673</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A973821</t>
+          <t>A861585</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A168077</t>
+          <t>A401874</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A906147</t>
+          <t>A691594</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A944981</t>
+          <t>A828069</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A436358</t>
+          <t>A577802</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A709025</t>
+          <t>A391741</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A226508</t>
+          <t>A315172</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A642508</t>
+          <t>A141349</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A776697</t>
+          <t>A882585</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A345105</t>
+          <t>A878730</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -858,111 +1558,111 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A832461</t>
+          <t>A633066</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A771469</t>
+          <t>A985522</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A642695</t>
+          <t>A191033</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A303780</t>
+          <t>A810174</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A908192</t>
+          <t>A315975</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A915935</t>
+          <t>A615686</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -973,42 +1673,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A953645</t>
+          <t>A137519</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A239606</t>
+          <t>A515348</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1018,31 +1718,31 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A376048</t>
+          <t>A882142</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A544176</t>
+          <t>A748660</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
@@ -1053,56 +1753,56 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A207415</t>
+          <t>A413567</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A414782</t>
+          <t>A202409</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A459429</t>
+          <t>A856819</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -1113,16 +1813,196 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A544532</t>
+          <t>A930566</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>44</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A794939</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A973902</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A178063</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A906827</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A620696</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A911729</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A293408</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A606582</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A887613</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1144,34 +2024,43 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Summary Statistics</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -1180,21 +2069,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A224814</t>
+          <t>A524563</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1209,21 +2098,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A721849</t>
+          <t>A136756</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1238,21 +2127,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A632891</t>
+          <t>A506708</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1267,21 +2156,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A839154</t>
+          <t>A923990</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1296,21 +2185,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A654921</t>
+          <t>A396362</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1325,7 +2214,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1335,77 +2224,77 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A456673</t>
+          <t>A591499</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A861585</t>
+          <t>A636971</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A401874</t>
+          <t>A954763</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A691594</t>
+          <t>A602085</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1415,97 +2304,97 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A828069</t>
+          <t>A256211</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A577802</t>
+          <t>A315504</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A391741</t>
+          <t>A355334</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A315172</t>
+          <t>A840817</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A141349</t>
+          <t>A950177</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1515,57 +2404,57 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A882585</t>
+          <t>A556425</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A878730</t>
+          <t>A341776</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A633066</t>
+          <t>A670267</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1575,267 +2464,267 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A985522</t>
+          <t>A197327</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A191033</t>
+          <t>A276469</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A810174</t>
+          <t>A560443</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A315975</t>
+          <t>A675960</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A615686</t>
+          <t>A150361</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A137519</t>
+          <t>A951439</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A515348</t>
+          <t>A658689</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A882142</t>
+          <t>A848040</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A748660</t>
+          <t>A965437</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A413567</t>
+          <t>A326210</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A202409</t>
+          <t>A452023</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A856819</t>
+          <t>A228761</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A930566</t>
+          <t>A874638</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A794939</t>
+          <t>A774064</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1850,102 +2739,102 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A973902</t>
+          <t>A801440</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A178063</t>
+          <t>A271333</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A906827</t>
+          <t>A776097</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A620696</t>
+          <t>A301916</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A911729</t>
+          <t>A651544</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1955,37 +2844,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A293408</t>
+          <t>A290581</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A606582</t>
+          <t>A220383</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1995,11 +2884,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A887613</t>
+          <t>A222043</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2014,883 +2903,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Summary Statistics</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A524563</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>82</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Highest Grade</t>
-        </is>
-      </c>
-      <c r="G2">
-        <f>MAX(D2:D40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A136756</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>45</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Lowest Grade</t>
-        </is>
-      </c>
-      <c r="G3">
-        <f>MIN(D2:D40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A506708</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>40</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Mean Grade</t>
-        </is>
-      </c>
-      <c r="G4">
-        <f>AVERAGE(D2:D40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A923990</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>75</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Median Grade</t>
-        </is>
-      </c>
-      <c r="G5">
-        <f>MEDIAN(D2:D40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A396362</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>40</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Number of Students</t>
-        </is>
-      </c>
-      <c r="G6">
-        <f>COUNT(D2:D40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A591499</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A636971</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A954763</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A602085</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A256211</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A315504</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A355334</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A840817</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A950177</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A556425</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A341776</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A670267</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A197327</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A276469</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A560443</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A675960</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A150361</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A951439</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A658689</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A848040</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A965437</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A326210</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A452023</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A228761</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A874638</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A774064</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A801440</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A271333</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A776097</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A301916</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A651544</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A290581</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A220383</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A222043</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A:D"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2898,34 +2910,43 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Summary Statistics</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
